--- a/biology/Zoologie/Hirondelle_hérissée/Hirondelle_hérissée.xlsx
+++ b/biology/Zoologie/Hirondelle_hérissée/Hirondelle_hérissée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hirondelle_h%C3%A9riss%C3%A9e</t>
+          <t>Hirondelle_hérissée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Psalidoprocne pristoptera
 L'Hirondelle hérissée (Psalidoprocne pristoptera) est une espèce de passereaux de la famille des Hirundinidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hirondelle_h%C3%A9riss%C3%A9e</t>
+          <t>Hirondelle_hérissée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son aire de répartition s'étend à travers le Nigeria, le Cameroun, la République centrafricaine, la Guinée équatoriale, le Gabon, la République du Congo, l'est de la République démocratique du Congo, l'Angola, la Zambie, le Zimbabwe, l'Afrique du Sud, le Swaziland, le Mozambique, le Malawi, la Tanzanie, le Burundi, le Rwanda, l'Ouganda, le Kenya, la Somalie, l'Éthiopie, l'Érythrée et le Soudan. Elle est rare au Botswana.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hirondelle_h%C3%A9riss%C3%A9e</t>
+          <t>Hirondelle_hérissée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau est généralement considéré comme représenté par 12 sous-espèces :
 Psalidoprocne pristoptera antinorii Salvadori, 1884 — Hirondelle de Salvadori* ;
